--- a/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
+++ b/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/_home/_schemes/_Midi/Eurorack/RPi synth kit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_RPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D6729-1FF0-EA4E-9522-BD750F5D0312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5405DD-5604-B241-95D4-DCBF4D31EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="1500" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="-31940" yWindow="1480" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -906,6 +906,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -927,12 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:AJ185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,13 +1380,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -1407,13 +1407,13 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="R3" t="s">
         <v>2</v>
       </c>
@@ -1507,13 +1507,13 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="R6" t="s">
         <v>2</v>
       </c>
@@ -1668,13 +1668,13 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
@@ -1795,13 +1795,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
@@ -1854,13 +1854,13 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
@@ -1975,13 +1975,13 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
@@ -2066,13 +2066,13 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
       <c r="R46" t="s">
         <v>11</v>
       </c>
@@ -2096,13 +2096,13 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
       <c r="R47" t="s">
         <v>11</v>
       </c>
@@ -2123,13 +2123,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="R48" t="s">
         <v>11</v>
       </c>
@@ -2150,13 +2150,13 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
       <c r="R49" t="s">
         <v>11</v>
       </c>
@@ -2183,13 +2183,13 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
       <c r="R50" t="s">
         <v>11</v>
       </c>
@@ -2216,13 +2216,13 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
       <c r="R51" t="s">
         <v>11</v>
       </c>
@@ -2246,20 +2246,20 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
       <c r="R53" t="s">
         <v>11</v>
       </c>
@@ -4705,11 +4705,6 @@
     <sortCondition ref="A1:A202"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A3:E3"/>
@@ -4720,9 +4715,14 @@
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
+++ b/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_RPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5405DD-5604-B241-95D4-DCBF4D31EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA09BFA-AD80-E14B-939B-1DF410702A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31940" yWindow="1480" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="204">
   <si>
     <t>D</t>
   </si>
@@ -272,15 +272,9 @@
     <t>D_*</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>LED*</t>
-  </si>
-  <si>
     <t>LED_SMD:*</t>
   </si>
   <si>
@@ -462,9 +456,6 @@
   </si>
   <si>
     <t>Soldereing instruction and tips:</t>
-  </si>
-  <si>
-    <t>* Use only TRS 3.5mm cables. Do not use mono eurorack cables.</t>
   </si>
   <si>
     <t>Link</t>
@@ -614,37 +605,7 @@
     <t>Male 3-pin jumper header</t>
   </si>
   <si>
-    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able   to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Consider proper orientation for Pin1 IC sockets and polarity for capacitors, diode marks. </t>
-  </si>
-  <si>
     <t xml:space="preserve">* Follow polarity orientation for LEDs. Square pad on PCB is for the negative pin. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* Please, note, Pin1 of Eurorack power connector is faced down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. It's a red wire. 
-  Set JP2 to use either 5V or 12V power: (1-2) - 5V, (2-3) - 12V</t>
-    </r>
   </si>
   <si>
     <t>* Refer to silkscreen istructions for jumper positions for 5V or 12V eurorack power operation</t>
@@ -682,13 +643,22 @@
   </si>
   <si>
     <t>It's required to be 5" with DSI and flex cable, not HDMI: https://www.aliexpress.com/item/33024647905.html Otherwise it won't fit.</t>
+  </si>
+  <si>
+    <t>* Use only TRS 3.5mm cables for MIDI. Do not use mono eurorack cables for MIDI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. </t>
+  </si>
+  <si>
+    <t>* Watch the assembly video: https://youtu.be/KfUyIja2pYk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,14 +685,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -906,15 +868,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -924,15 +883,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,15 +926,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2070099</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3174999</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>177060</xdr:rowOff>
+      <xdr:colOff>2781299</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>37360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -993,7 +964,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7518399" y="18376900"/>
+          <a:off x="7124699" y="18592800"/>
           <a:ext cx="1104900" cy="1510560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1313,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ185"/>
+  <dimension ref="A1:AJ183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,13 +1351,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -1407,13 +1378,13 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="R3" t="s">
         <v>2</v>
       </c>
@@ -1441,19 +1412,19 @@
     </row>
     <row r="4" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
@@ -1507,13 +1478,13 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="R6" t="s">
         <v>2</v>
       </c>
@@ -1543,10 +1514,10 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -1556,10 +1527,10 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -1593,10 +1564,10 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>206</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -1606,10 +1577,10 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
@@ -1619,10 +1590,10 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -1632,10 +1603,10 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -1668,13 +1639,13 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
@@ -1682,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
@@ -1694,13 +1665,13 @@
     <row r="16" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -1712,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E17" s="12">
         <v>1</v>
@@ -1724,13 +1695,13 @@
     <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -1740,10 +1711,10 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="E19" s="12">
         <v>1</v>
@@ -1752,13 +1723,13 @@
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
@@ -1770,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
@@ -1785,23 +1756,23 @@
         <v>36</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
@@ -1809,10 +1780,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -1822,10 +1793,10 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -1837,10 +1808,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E27" s="12">
         <v>1</v>
@@ -1854,13 +1825,13 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
@@ -1868,10 +1839,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -1883,10 +1854,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E31" s="12">
         <v>1</v>
@@ -1898,142 +1869,142 @@
         <v>16</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E32" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E33" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E34" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E36" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="17"/>
@@ -2058,21 +2029,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+    <row r="46" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
       <c r="R46" t="s">
         <v>11</v>
       </c>
@@ -2095,14 +2066,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
       <c r="R47" t="s">
         <v>11</v>
       </c>
@@ -2119,17 +2090,17 @@
         <v>9</v>
       </c>
       <c r="Z47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
       <c r="R48" t="s">
         <v>11</v>
       </c>
@@ -2145,84 +2116,63 @@
       <c r="W48" t="s">
         <v>9</v>
       </c>
-      <c r="Z48" t="s">
-        <v>82</v>
+      <c r="AA48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
       <c r="R49" t="s">
         <v>11</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V49" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="W49" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB49">
-        <v>1</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>77</v>
+      <c r="X49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="R50" t="s">
-        <v>11</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50">
-        <v>7</v>
-      </c>
-      <c r="V50" t="s">
-        <v>22</v>
-      </c>
-      <c r="W50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>77</v>
-      </c>
+      <c r="A50" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="24"/>
       <c r="R51" t="s">
         <v>11</v>
       </c>
@@ -2239,27 +2189,38 @@
         <v>9</v>
       </c>
       <c r="X51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="R52" t="s">
+        <v>11</v>
+      </c>
+      <c r="S52" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52">
+        <v>8</v>
+      </c>
+      <c r="V52" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
       <c r="R53" t="s">
         <v>11</v>
       </c>
@@ -2275,11 +2236,14 @@
       <c r="W53" t="s">
         <v>9</v>
       </c>
-      <c r="X53" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>12</v>
+      <c r="AA53" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2298,60 +2262,57 @@
       <c r="W54" t="s">
         <v>9</v>
       </c>
-      <c r="Z54" t="s">
-        <v>83</v>
+      <c r="AA54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T55">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U55" t="s">
+        <v>82</v>
       </c>
       <c r="V55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V56" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W56" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB56">
-        <v>2</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="X56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2364,14 +2325,17 @@
       <c r="T57">
         <v>9</v>
       </c>
-      <c r="U57" t="s">
-        <v>84</v>
-      </c>
       <c r="V57" t="s">
         <v>5</v>
       </c>
       <c r="W57" t="s">
         <v>4</v>
+      </c>
+      <c r="X57" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -2390,11 +2354,8 @@
       <c r="W58" t="s">
         <v>4</v>
       </c>
-      <c r="X58" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>69</v>
+      <c r="Z58" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -2413,11 +2374,8 @@
       <c r="W59" t="s">
         <v>4</v>
       </c>
-      <c r="X59" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>7</v>
+      <c r="Z59" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -2436,8 +2394,14 @@
       <c r="W60" t="s">
         <v>4</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>85</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -2456,8 +2420,14 @@
       <c r="W61" t="s">
         <v>4</v>
       </c>
-      <c r="Z61" t="s">
-        <v>86</v>
+      <c r="AA61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB61">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -2477,13 +2447,13 @@
         <v>4</v>
       </c>
       <c r="AA62" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -2503,13 +2473,13 @@
         <v>4</v>
       </c>
       <c r="AA63" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AB63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC63" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -2529,10 +2499,10 @@
         <v>4</v>
       </c>
       <c r="AA64" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AB64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC64" t="s">
         <v>77</v>
@@ -2558,10 +2528,10 @@
         <v>87</v>
       </c>
       <c r="AB65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC65" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -2581,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="AA66" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AB66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC66" t="s">
         <v>77</v>
@@ -2607,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="AA67" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC67" t="s">
         <v>77</v>
@@ -2618,54 +2588,48 @@
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R68" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="T68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V68" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="W68" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB68">
-        <v>7</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="X68" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R69" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="T69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V69" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="W69" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB69">
-        <v>8</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="X69" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -2685,10 +2649,10 @@
         <v>46</v>
       </c>
       <c r="X70" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Y70" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -2708,10 +2672,10 @@
         <v>46</v>
       </c>
       <c r="X71" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="Y71" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -2731,10 +2695,10 @@
         <v>46</v>
       </c>
       <c r="X72" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="Y72" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -2754,10 +2718,10 @@
         <v>46</v>
       </c>
       <c r="X73" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="Y73" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -2777,10 +2741,10 @@
         <v>46</v>
       </c>
       <c r="X74" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Y74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -2800,10 +2764,10 @@
         <v>46</v>
       </c>
       <c r="X75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y75" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -2823,10 +2787,10 @@
         <v>46</v>
       </c>
       <c r="X76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Y76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -2846,10 +2810,10 @@
         <v>46</v>
       </c>
       <c r="X77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Y77" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -2869,10 +2833,10 @@
         <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y78" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -2892,10 +2856,10 @@
         <v>46</v>
       </c>
       <c r="X79" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Y79" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -2915,10 +2879,10 @@
         <v>46</v>
       </c>
       <c r="X80" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Y80" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="18:36" x14ac:dyDescent="0.2">
@@ -2937,11 +2901,14 @@
       <c r="W81" t="s">
         <v>46</v>
       </c>
-      <c r="X81" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>62</v>
+      <c r="AA81" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="18:36" x14ac:dyDescent="0.2">
@@ -2960,11 +2927,14 @@
       <c r="W82" t="s">
         <v>46</v>
       </c>
-      <c r="X82" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>64</v>
+      <c r="AA82" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="18:36" x14ac:dyDescent="0.2">
@@ -2984,70 +2954,34 @@
         <v>46</v>
       </c>
       <c r="AA83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB83">
+        <v>3</v>
+      </c>
+      <c r="AC83" t="s">
         <v>94</v>
       </c>
-      <c r="AB83">
-        <v>1</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="84" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="R84" t="s">
-        <v>50</v>
-      </c>
-      <c r="S84" t="s">
-        <v>51</v>
-      </c>
-      <c r="T84">
-        <v>10</v>
-      </c>
-      <c r="V84" t="s">
-        <v>49</v>
-      </c>
-      <c r="W84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB84">
-        <v>2</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>75</v>
+      <c r="AD84" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="R85" t="s">
-        <v>50</v>
-      </c>
-      <c r="S85" t="s">
-        <v>51</v>
-      </c>
-      <c r="T85">
-        <v>10</v>
-      </c>
-      <c r="V85" t="s">
-        <v>49</v>
-      </c>
-      <c r="W85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB85">
-        <v>3</v>
-      </c>
-      <c r="AC85" t="s">
+      <c r="AD85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE85" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD86" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE86" t="s">
         <v>97</v>
@@ -3055,7 +2989,7 @@
     </row>
     <row r="87" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD87" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AE87" t="s">
         <v>98</v>
@@ -3063,26 +2997,44 @@
     </row>
     <row r="88" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD88" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AE88" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD89" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE89" t="s">
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AG89" t="s">
         <v>100</v>
       </c>
+      <c r="AH89">
+        <v>1</v>
+      </c>
+      <c r="AI89">
+        <v>1</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="90" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD90" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>101</v>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="18:36" x14ac:dyDescent="0.2">
@@ -3090,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="AG91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH91">
         <v>1</v>
@@ -3099,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="18:36" x14ac:dyDescent="0.2">
@@ -3107,16 +3059,16 @@
         <v>1</v>
       </c>
       <c r="AG92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH92">
         <v>1</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ92" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="18:36" x14ac:dyDescent="0.2">
@@ -3124,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="AG93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH93">
         <v>1</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ93" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="18:36" x14ac:dyDescent="0.2">
@@ -3141,16 +3093,16 @@
         <v>1</v>
       </c>
       <c r="AG94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH94">
         <v>1</v>
       </c>
       <c r="AI94">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ94" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="18:36" x14ac:dyDescent="0.2">
@@ -3158,16 +3110,16 @@
         <v>1</v>
       </c>
       <c r="AG95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH95">
         <v>1</v>
       </c>
       <c r="AI95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ95" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="18:36" x14ac:dyDescent="0.2">
@@ -3175,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="AG96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH96">
         <v>1</v>
@@ -3184,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3192,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="AG97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH97">
         <v>1</v>
@@ -3201,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="AJ97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3209,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="AG98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH98">
         <v>1</v>
@@ -3218,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="AJ98" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
@@ -3226,16 +3178,16 @@
         <v>1</v>
       </c>
       <c r="AG99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH99">
         <v>1</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ99" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="32:36" x14ac:dyDescent="0.2">
@@ -3243,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="AG100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH100">
         <v>1</v>
@@ -3252,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="AJ100" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="32:36" x14ac:dyDescent="0.2">
@@ -3260,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH101">
         <v>1</v>
@@ -3269,41 +3221,41 @@
         <v>2</v>
       </c>
       <c r="AJ101" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ102" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ103" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="32:36" x14ac:dyDescent="0.2">
@@ -3311,13 +3263,13 @@
         <v>2</v>
       </c>
       <c r="AG104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH104">
         <v>2</v>
       </c>
       <c r="AI104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ104" t="s">
         <v>1</v>
@@ -3328,13 +3280,13 @@
         <v>2</v>
       </c>
       <c r="AG105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH105">
         <v>2</v>
       </c>
       <c r="AI105">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ105" t="s">
         <v>1</v>
@@ -3345,13 +3297,13 @@
         <v>2</v>
       </c>
       <c r="AG106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH106">
         <v>2</v>
       </c>
       <c r="AI106">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ106" t="s">
         <v>1</v>
@@ -3362,13 +3314,13 @@
         <v>2</v>
       </c>
       <c r="AG107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH107">
         <v>2</v>
       </c>
       <c r="AI107">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ107" t="s">
         <v>1</v>
@@ -3376,53 +3328,53 @@
     </row>
     <row r="108" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI108">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ108" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG109" t="s">
         <v>103</v>
       </c>
       <c r="AH109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI109">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AJ109" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI110">
         <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="32:36" x14ac:dyDescent="0.2">
@@ -3430,67 +3382,67 @@
         <v>4</v>
       </c>
       <c r="AG111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH111">
         <v>4</v>
       </c>
       <c r="AI111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF112">
+        <v>5</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH112">
+        <v>5</v>
+      </c>
+      <c r="AI112">
         <v>4</v>
       </c>
-      <c r="AG112" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH112">
-        <v>4</v>
-      </c>
-      <c r="AI112">
-        <v>1</v>
-      </c>
       <c r="AJ112" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG113" t="s">
         <v>105</v>
       </c>
       <c r="AH113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ113" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ114" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="32:36" x14ac:dyDescent="0.2">
@@ -3498,47 +3450,47 @@
         <v>6</v>
       </c>
       <c r="AG115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH115">
         <v>6</v>
       </c>
       <c r="AI115">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI116">
         <v>2</v>
       </c>
       <c r="AJ116" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ117" t="s">
         <v>1</v>
@@ -3546,50 +3498,50 @@
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ119" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ120" t="s">
         <v>17</v>
@@ -3597,50 +3549,50 @@
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ121" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI122">
         <v>2</v>
       </c>
       <c r="AJ122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ123" t="s">
         <v>1</v>
@@ -3648,67 +3600,67 @@
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ124" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI125">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ125" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI126">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ126" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ127" t="s">
         <v>19</v>
@@ -3716,186 +3668,186 @@
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI128">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ129" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ130" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ131" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI132">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH134">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI134">
         <v>1</v>
       </c>
       <c r="AJ134" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF135">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG135" t="s">
         <v>116</v>
       </c>
       <c r="AH135">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ135" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG136" t="s">
         <v>117</v>
       </c>
       <c r="AH136">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI136">
         <v>1</v>
       </c>
       <c r="AJ136" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF137">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG137" t="s">
         <v>118</v>
       </c>
       <c r="AH137">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI137">
         <v>3</v>
       </c>
       <c r="AJ137" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG138" t="s">
         <v>119</v>
       </c>
       <c r="AH138">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ138" t="s">
         <v>27</v>
@@ -3903,271 +3855,271 @@
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH139">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ139" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG141" t="s">
         <v>121</v>
       </c>
       <c r="AH141">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ141" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG142" t="s">
         <v>122</v>
       </c>
       <c r="AH142">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI142">
         <v>1</v>
       </c>
       <c r="AJ142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG143" t="s">
         <v>123</v>
       </c>
       <c r="AH143">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI143">
         <v>3</v>
       </c>
       <c r="AJ143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG144" t="s">
         <v>124</v>
       </c>
       <c r="AH144">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ144" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF145">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH145">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH146">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ146" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH147">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH148">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI148">
         <v>2</v>
       </c>
       <c r="AJ148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH149">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI149">
         <v>4</v>
       </c>
       <c r="AJ149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG150" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH150">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH151">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ151" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH152">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG153" t="s">
         <v>129</v>
       </c>
       <c r="AH153">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI153">
         <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG154" t="s">
         <v>130</v>
       </c>
       <c r="AH154">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ154" t="s">
         <v>34</v>
@@ -4175,16 +4127,16 @@
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG155" t="s">
         <v>131</v>
       </c>
       <c r="AH155">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ155" t="s">
         <v>34</v>
@@ -4192,53 +4144,53 @@
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH156">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ156" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH157">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ157" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH158">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ158" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
@@ -4246,84 +4198,84 @@
         <v>33</v>
       </c>
       <c r="AG159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH159">
         <v>33</v>
       </c>
       <c r="AI159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH160">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF161">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH161">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI161">
         <v>2</v>
       </c>
       <c r="AJ161" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH162">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ162" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF163">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH163">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ163" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -4331,7 +4283,7 @@
         <v>35</v>
       </c>
       <c r="AG164" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH164">
         <v>35</v>
@@ -4340,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="AJ164" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4348,84 +4300,84 @@
         <v>35</v>
       </c>
       <c r="AG165" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH165">
         <v>35</v>
       </c>
       <c r="AI165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ165" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH166">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ166" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH167">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI167">
         <v>1</v>
       </c>
       <c r="AJ167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG168" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AH168">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI168">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF169">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG169" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AH169">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ169" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -4442,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="AJ170" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -4459,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -4473,10 +4425,10 @@
         <v>37</v>
       </c>
       <c r="AI172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -4493,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="AJ173" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -4507,10 +4459,10 @@
         <v>37</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ174" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -4527,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -4544,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -4561,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -4578,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -4595,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -4609,10 +4561,10 @@
         <v>37</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ180" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -4626,100 +4578,64 @@
         <v>37</v>
       </c>
       <c r="AI181">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ181" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG182" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AH182">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ182" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG183" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AH183">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI183">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF184">
-        <v>38</v>
-      </c>
-      <c r="AG184" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH184">
-        <v>38</v>
-      </c>
-      <c r="AI184">
-        <v>3</v>
-      </c>
-      <c r="AJ184" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="185" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF185">
-        <v>38</v>
-      </c>
-      <c r="AG185" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH185">
-        <v>38</v>
-      </c>
-      <c r="AI185">
-        <v>1</v>
-      </c>
-      <c r="AJ185" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT202">
-    <sortCondition ref="A1:A202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT200">
+    <sortCondition ref="A1:A200"/>
   </sortState>
-  <mergeCells count="15">
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A38:E38"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>

--- a/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
+++ b/Eurorack_RPi/Eurorack_RPi_synth_kit_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_RPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1690E-CEC3-5347-B286-07E2F8B614D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B971DAB9-5B8C-864F-B7AF-22391472CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31940" yWindow="1480" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
@@ -568,12 +568,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -592,6 +586,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,22 +991,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1026,13 +1026,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -1113,13 +1113,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
@@ -1240,87 +1240,87 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
@@ -1435,13 +1435,13 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
@@ -1508,58 +1508,58 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="33"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="33"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="33"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -2618,6 +2618,11 @@
     <sortCondition ref="A1:A201"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A3:E3"/>
@@ -2626,11 +2631,6 @@
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
